--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Yearly Results of FCS Software Solutions(in Rs. Cr.)</t>
   </si>
@@ -146,6 +146,66 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>115.83</t>
+  </si>
+  <si>
+    <t>131.27</t>
+  </si>
+  <si>
+    <t>97.62</t>
+  </si>
+  <si>
+    <t>91.34</t>
+  </si>
+  <si>
+    <t>95.40</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>98.03</t>
+  </si>
+  <si>
+    <t>55.62</t>
+  </si>
+  <si>
+    <t>83.96</t>
+  </si>
+  <si>
+    <t>57.71</t>
+  </si>
+  <si>
+    <t>26.46</t>
+  </si>
+  <si>
+    <t>22.26</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>39.62</t>
+  </si>
+  <si>
+    <t>36.89</t>
+  </si>
+  <si>
+    <t>36.88</t>
+  </si>
+  <si>
+    <t>33.67</t>
+  </si>
+  <si>
+    <t>34.32</t>
+  </si>
+  <si>
+    <t>34.95</t>
+  </si>
+  <si>
+    <t>36.19</t>
   </si>
 </sst>
 </file>
@@ -587,14 +647,14 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>115.83</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>115.83</v>
       </c>
       <c r="D2">
-        <v>35.92578947368422</v>
+        <v>35.93</v>
       </c>
       <c r="E2">
         <v>2.13</v>
@@ -639,16 +699,16 @@
         <v>61.02</v>
       </c>
       <c r="S2">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T2">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U2">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V2">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W2">
         <v>0.36</v>
@@ -661,8 +721,8 @@
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>131.27</v>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3">
         <v>131.27</v>
@@ -713,16 +773,16 @@
         <v>76.45</v>
       </c>
       <c r="S3">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T3">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U3">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V3">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W3">
         <v>0.45</v>
@@ -735,8 +795,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>97.62</v>
+      <c r="B4" t="s">
+        <v>46</v>
       </c>
       <c r="C4">
         <v>97.62</v>
@@ -787,16 +847,16 @@
         <v>106.2</v>
       </c>
       <c r="S4">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T4">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U4">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V4">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W4">
         <v>0.46</v>
@@ -809,8 +869,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>91.34</v>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5">
         <v>91.34</v>
@@ -861,16 +921,16 @@
         <v>133.94</v>
       </c>
       <c r="S5">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T5">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U5">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V5">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W5">
         <v>0.46</v>
@@ -883,8 +943,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>95.40000000000001</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
       <c r="C6">
         <v>95.40000000000001</v>
@@ -935,16 +995,16 @@
         <v>246.4</v>
       </c>
       <c r="S6">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T6">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U6">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V6">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W6">
         <v>36.36</v>
@@ -957,8 +1017,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>116</v>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7">
         <v>116</v>
@@ -1031,8 +1091,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>98.03</v>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8">
         <v>98.03</v>
@@ -1105,8 +1165,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>55.62</v>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
       <c r="C9">
         <v>55.62</v>
@@ -1160,13 +1220,13 @@
         <v>0.01</v>
       </c>
       <c r="T9">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U9">
         <v>0.01</v>
       </c>
       <c r="V9">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W9">
         <v>107.36</v>
@@ -1179,8 +1239,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>83.95999999999999</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>83.95999999999999</v>
@@ -1253,8 +1313,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>57.71</v>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
       <c r="C11">
         <v>57.71</v>
@@ -1327,8 +1387,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>26.46</v>
+      <c r="B12" t="s">
+        <v>54</v>
       </c>
       <c r="C12">
         <v>26.46</v>
@@ -1340,7 +1400,7 @@
         <v>3.53</v>
       </c>
       <c r="F12">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G12">
         <v>9.1</v>
@@ -1379,10 +1439,10 @@
         <v>368.36</v>
       </c>
       <c r="S12">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T12">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U12">
         <v>-0.31</v>
@@ -1391,18 +1451,18 @@
         <v>-0.29</v>
       </c>
       <c r="W12">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X12">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>22.26</v>
+      <c r="B13" t="s">
+        <v>55</v>
       </c>
       <c r="C13">
         <v>22.26</v>
@@ -1414,7 +1474,7 @@
         <v>3.91</v>
       </c>
       <c r="F13">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G13">
         <v>10.15</v>
@@ -1465,18 +1525,18 @@
         <v>-0.13</v>
       </c>
       <c r="W13">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X13">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>29.05</v>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14">
         <v>29.05</v>
@@ -1488,7 +1548,7 @@
         <v>1.04</v>
       </c>
       <c r="F14">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G14">
         <v>13.04</v>
@@ -1539,18 +1599,18 @@
         <v>0.02</v>
       </c>
       <c r="W14">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X14">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>39.62</v>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15">
         <v>39.62</v>
@@ -1562,7 +1622,7 @@
         <v>3.34</v>
       </c>
       <c r="F15">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G15">
         <v>16.2</v>
@@ -1613,18 +1673,18 @@
         <v>0.01</v>
       </c>
       <c r="W15">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X15">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>36.89</v>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16">
         <v>36.89</v>
@@ -1636,7 +1696,7 @@
         <v>5.24</v>
       </c>
       <c r="F16">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G16">
         <v>19.18</v>
@@ -1687,18 +1747,18 @@
         <v>-0.06</v>
       </c>
       <c r="W16">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X16">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>36.88</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17">
         <v>36.88</v>
@@ -1710,7 +1770,7 @@
         <v>5.24</v>
       </c>
       <c r="F17">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G17">
         <v>19.17</v>
@@ -1761,18 +1821,18 @@
         <v>-0.06</v>
       </c>
       <c r="W17">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X17">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>33.67</v>
+      <c r="B18" t="s">
+        <v>60</v>
       </c>
       <c r="C18">
         <v>33.67</v>
@@ -1784,7 +1844,7 @@
         <v>4.61</v>
       </c>
       <c r="F18">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G18">
         <v>6.77</v>
@@ -1835,18 +1895,18 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="W18">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X18">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>34.32</v>
+      <c r="B19" t="s">
+        <v>61</v>
       </c>
       <c r="C19">
         <v>34.32</v>
@@ -1858,7 +1918,7 @@
         <v>3.86</v>
       </c>
       <c r="F19">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G19">
         <v>6.33</v>
@@ -1897,30 +1957,30 @@
         <v>128.36</v>
       </c>
       <c r="S19">
-        <v>-0.01846153846153846</v>
+        <v>-0.02</v>
       </c>
       <c r="T19">
-        <v>-0.02083333333333333</v>
+        <v>-0.02</v>
       </c>
       <c r="U19">
-        <v>-0.04785714285714286</v>
+        <v>-0.05</v>
       </c>
       <c r="V19">
-        <v>-0.05076923076923077</v>
+        <v>-0.05</v>
       </c>
       <c r="W19">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X19">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>34.95</v>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20">
         <v>34.95</v>
@@ -1932,7 +1992,7 @@
         <v>4.2</v>
       </c>
       <c r="F20">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G20">
         <v>7.42</v>
@@ -1983,18 +2043,18 @@
         <v>0.01</v>
       </c>
       <c r="W20">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X20">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>36.19</v>
+      <c r="B21" t="s">
+        <v>63</v>
       </c>
       <c r="C21">
         <v>36.19</v>
@@ -2006,7 +2066,7 @@
         <v>3.61</v>
       </c>
       <c r="F21">
-        <v>15.734</v>
+        <v>15.73</v>
       </c>
       <c r="G21">
         <v>8.859999999999999</v>
@@ -2057,10 +2117,10 @@
         <v>-0.08</v>
       </c>
       <c r="W21">
-        <v>58.88900000000001</v>
+        <v>58.89</v>
       </c>
       <c r="X21">
-        <v>60.828</v>
+        <v>60.83</v>
       </c>
     </row>
   </sheetData>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/FCS Software Solutions Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -1,237 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
-  <si>
-    <t>Yearly Results of FCS Software Solutions(in Rs. Cr.)</t>
-  </si>
-  <si>
-    <t>Net Sales/Income from operations</t>
-  </si>
-  <si>
-    <t>Total Income From Operations</t>
-  </si>
-  <si>
-    <t>Employees Cost</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Admin. And Selling Expenses</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>P/L Before Exceptional Items &amp; Tax</t>
-  </si>
-  <si>
-    <t>P/L Before Tax</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>P/L After Tax from Ordinary Activities</t>
-  </si>
-  <si>
-    <t>Net Profit/(Loss) For the Period</t>
-  </si>
-  <si>
-    <t>Equity Share Capital</t>
-  </si>
-  <si>
-    <t>Reserves Excluding Revaluation Reserves</t>
-  </si>
-  <si>
-    <t>Basic EPS</t>
-  </si>
-  <si>
-    <t>Diluted EPS</t>
-  </si>
-  <si>
-    <t>Basic EPS.</t>
-  </si>
-  <si>
-    <t>Diluted EPS.</t>
-  </si>
-  <si>
-    <t>No Of Shares (Crores)</t>
-  </si>
-  <si>
-    <t>Share Holding (%)</t>
-  </si>
-  <si>
-    <t>Mar '06</t>
-  </si>
-  <si>
-    <t>Mar '07</t>
-  </si>
-  <si>
-    <t>Mar '08</t>
-  </si>
-  <si>
-    <t>Mar '09</t>
-  </si>
-  <si>
-    <t>Mar '10</t>
-  </si>
-  <si>
-    <t>Mar '11</t>
-  </si>
-  <si>
-    <t>Mar '12</t>
-  </si>
-  <si>
-    <t>Mar '13</t>
-  </si>
-  <si>
-    <t>Mar '14</t>
-  </si>
-  <si>
-    <t>Mar '15</t>
-  </si>
-  <si>
-    <t>Mar '16</t>
-  </si>
-  <si>
-    <t>Mar '17</t>
-  </si>
-  <si>
-    <t>Mar '18</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Mar '20</t>
-  </si>
-  <si>
-    <t>Nov '20</t>
-  </si>
-  <si>
-    <t>Mar '21</t>
-  </si>
-  <si>
-    <t>Mar '22</t>
-  </si>
-  <si>
-    <t>Mar '23</t>
-  </si>
-  <si>
-    <t>Mar '24</t>
-  </si>
-  <si>
-    <t>115.83</t>
-  </si>
-  <si>
-    <t>131.27</t>
-  </si>
-  <si>
-    <t>97.62</t>
-  </si>
-  <si>
-    <t>91.34</t>
-  </si>
-  <si>
-    <t>95.40</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>98.03</t>
-  </si>
-  <si>
-    <t>55.62</t>
-  </si>
-  <si>
-    <t>83.96</t>
-  </si>
-  <si>
-    <t>57.71</t>
-  </si>
-  <si>
-    <t>26.46</t>
-  </si>
-  <si>
-    <t>22.26</t>
-  </si>
-  <si>
-    <t>29.05</t>
-  </si>
-  <si>
-    <t>39.62</t>
-  </si>
-  <si>
-    <t>36.89</t>
-  </si>
-  <si>
-    <t>36.88</t>
-  </si>
-  <si>
-    <t>33.67</t>
-  </si>
-  <si>
-    <t>34.32</t>
-  </si>
-  <si>
-    <t>34.95</t>
-  </si>
-  <si>
-    <t>36.19</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -246,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -562,1568 +420,1702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly Results of FCS Software Solutions(in Rs. Cr.)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Net Sales/Income from operations</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Income From Operations</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Employees Cost</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Depreciation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Admin. And Selling Expenses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Other Expenses</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Other Income</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>P/L Before Tax</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>P/L After Tax from Ordinary Activities</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Net Profit/(Loss) For the Period</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Share Capital</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reserves Excluding Revaluation Reserves</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Basic EPS.</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Diluted EPS.</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>No Of Shares (Crores)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Share Holding (%)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mar '06</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>115.83</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>115.83</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>35.93</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>2.13</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>12.67</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>86.19</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>14.85</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>15.41</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>15.22</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>15.22</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.44</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>14.79</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>14.79</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>14.07</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>61.02</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>0.36</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>25.79</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar '07</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>131.27</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>131.27</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>64.27</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2.56</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>12.38</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>28.47</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>23.59</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>24.52</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.46</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>24.06</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>24.06</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.88</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>23.18</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>23.16</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>14.27</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>76.45</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>0.45</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>31.33</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar '08</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>97.62</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>35.9</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>6.8</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>9.06</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>19.24</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>34.96</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.95</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>35.91</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.55</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>35.36</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>35.36</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2.67</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>32.7</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>32.7</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>14.43</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>106.2</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>0.46</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>32.08</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar '09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>91.34</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>35.6</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>14.96</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>19.24</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>27.34</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.79</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>28.13</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1.03</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>27.1</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>27.1</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>1.22</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>25.88</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>25.88</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>14.43</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>133.94</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>0.46</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>32.08</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar '10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>49.01</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>13.01</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>19.24</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>22.13</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1.71</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>23.84</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>22.94</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>22.94</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.68</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>22.26</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>22.16</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>52.96</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>246.4</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>36.36</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>68.66</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mar '11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>116.00</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>116</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>69.52</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37.34</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>19.24</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-5.72</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>8.48</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>2.77</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.52</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>2.24</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>2.24</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>1.41</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.83</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>0.84</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>102.96</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>382.3</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>0.01</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>0.01</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>0.01</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>0.01</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>89.36</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>86.79000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mar '12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>98.03</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>81.36</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>6.24</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>15.81</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>19.24</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-4.69</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>3.31</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>-1.38</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.47</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>-1.85</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>-1.84</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>-0.55</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>-1.29</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>-1.29</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>102.96</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>394.34</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>89.36</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>86.79000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mar '13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>55.62</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>45.76</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>4.68</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>10.33</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>19.24</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>-3.31</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>4.58</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>1.27</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>1.06</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>0.21</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>0.17</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>-0.52</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>125.96</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>416.4</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>0.01</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>0.01</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>107.36</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>85.23999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>83.95999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>59.82</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>4.3</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>26.92</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>19.24</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-7.96</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>4.95</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>-3.01</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.88</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>-3.89</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>-3.89</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>-3.82</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>-3.82</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>165.96</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>415.68</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>-0.02</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>-0.02</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>132.36</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>79.76000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>57.71</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>39.75</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>5.18</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>14.15</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>19.24</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>-4.24</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>6.4</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>2.16</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.84</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>1.32</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1.32</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>0.46</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>0.86</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>165.96</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>419.23</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>0.01</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>0.01</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>0.01</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>0.01</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>132.36</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>79.76000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>26.46</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>22.49</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3.53</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>15.73</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>9.1</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>-8.66</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>9.789999999999999</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>1.13</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>0.46</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>0.67</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>0.62</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>0.25</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>0.37</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>-52.16</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>165.96</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>368.36</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>-0.31</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>-0.29</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>58.89</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mar '17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>22.26</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>19.25</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>3.91</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>15.73</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>10.15</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-11.05</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>10.21</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-0.84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>0.66</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>-1.5</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>-1.5</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>0.39</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>-1.88</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>-1.88</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>170.95</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>204.78</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>-0.01</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>-0.01</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>-0.13</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>-0.13</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>58.89</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>29.05</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>19.02</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1.04</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>15.73</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>13.04</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-4.05</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>8.5</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>4.45</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.38</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>4.07</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>4.07</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>1.05</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>3.02</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>3.02</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>170.96</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>165.24</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>0.02</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>0.02</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>0.02</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>0.02</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>58.89</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>39.62</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>18.45</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>3.34</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>15.73</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>16.2</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>1.64</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>2.01</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>3.64</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>1.05</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>2.6</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>2.6</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>1.79</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>170.96</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>164.71</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>0.01</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>0.01</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>0.01</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>0.01</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>58.89</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>36.89</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>19.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>5.24</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>15.73</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>19.18</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-7.13</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>3.33</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-3.8</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>2.88</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>-6.68</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>-9.74</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>0.82</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>-10.56</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>-10.56</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>170.96</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>128.64</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>-0.06</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>-0.06</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>-0.06</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>-0.06</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>58.89</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nov '20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>36.88</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>19.59</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>5.24</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>15.73</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>19.17</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-7.13</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>3.33</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-3.8</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>2.88</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>-6.68</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>-9.74</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>0.82</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>-10.56</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>-10.56</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>170.96</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>128.64</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>-0.06</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>-0.06</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>-0.06</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>-0.06</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>58.89</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>33.67</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>20.12</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>4.61</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>15.73</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>6.77</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>2.16</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>2.67</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>4.83</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>2.32</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>2.5</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>-10.46</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>0.75</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>-11.21</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>-11.21</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>170.96</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>126.96</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>58.89</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mar '22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>34.32</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>22.1</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>3.86</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>15.73</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>6.33</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>2.04</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>1.86</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>3.89</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>2.29</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>1.61</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>0.53</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>0.45</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>0.08</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>170.96</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>128.36</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>-0.02</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>-0.05</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>-0.05</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>58.89</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>34.95</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>21.44</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>4.2</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>15.73</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>7.42</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>1.89</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>2.21</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>4.09</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>1.74</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>2.35</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>2.67</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>0.72</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>1.95</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>1.95</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>170.96</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>154.06</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>0.01</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>0.01</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>0.01</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>0.01</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>58.89</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>60.83</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>36.19</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>19.54</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>3.61</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>15.73</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>4.18</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>1.33</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>5.5</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>1.03</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>4.48</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>-13.97</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>-0.05</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>-13.93</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>-13.93</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>170.96</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>110.23</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>-0.08</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>-0.08</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>-0.08</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>-0.08</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>58.89</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>60.83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>